--- a/単・結テスト指示書Ver4.xlsx
+++ b/単・結テスト指示書Ver4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="424" documentId="6_{70D49645-6B16-4415-957D-337BB858348C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6836C2CE-88BE-4F22-B5D7-B0B3CE546358}"/>
+  <xr:revisionPtr revIDLastSave="452" documentId="6_{70D49645-6B16-4415-957D-337BB858348C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CC37B12-C27F-4209-B882-A8A12C0482A2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.ログイン画面" sheetId="17" r:id="rId1"/>
@@ -24971,8 +24971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A5D05C-A947-412D-8467-707785D53B24}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -24983,9 +24983,9 @@
     <col min="4" max="4" width="71" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="4" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="8" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="8" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -33688,7 +33688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DC6A80-9B5E-4681-998F-1D8FE59D4B12}">
   <dimension ref="A1:K658"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -35873,8 +35873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BE0129-4B5A-429F-8AFC-BDF5DEDBFD87}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -36265,8 +36265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView topLeftCell="C78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView topLeftCell="E28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I28" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -39343,10 +39343,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70830121-0F86-4ED5-84E5-C695C0022A94}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -39434,7 +39433,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1">
+    <row r="3" spans="1:11">
       <c r="A3" s="19" t="s">
         <v>52</v>
       </c>
@@ -39466,7 +39465,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1">
+    <row r="4" spans="1:11">
       <c r="A4" s="19" t="s">
         <v>53</v>
       </c>
@@ -39533,7 +39532,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="37.5" hidden="1">
+    <row r="6" spans="1:11" ht="37.5">
       <c r="A6" s="19" t="s">
         <v>55</v>
       </c>
@@ -39565,7 +39564,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="37.5" hidden="1">
+    <row r="7" spans="1:11" ht="37.5">
       <c r="A7" s="19" t="s">
         <v>69</v>
       </c>
@@ -39597,7 +39596,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="37.5" hidden="1">
+    <row r="8" spans="1:11" ht="37.5">
       <c r="A8" s="19" t="s">
         <v>70</v>
       </c>
@@ -39664,7 +39663,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="37.5" hidden="1">
+    <row r="10" spans="1:11" ht="37.5">
       <c r="A10" s="19" t="s">
         <v>72</v>
       </c>
@@ -39696,7 +39695,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="37.5" hidden="1">
+    <row r="11" spans="1:11" ht="37.5">
       <c r="A11" s="19" t="s">
         <v>73</v>
       </c>
@@ -39728,7 +39727,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="37.5" hidden="1">
+    <row r="12" spans="1:11" ht="37.5">
       <c r="A12" s="19" t="s">
         <v>74</v>
       </c>
@@ -39760,7 +39759,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="37.5" hidden="1">
+    <row r="13" spans="1:11" ht="37.5">
       <c r="A13" s="19" t="s">
         <v>75</v>
       </c>
@@ -39792,7 +39791,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="37.5" hidden="1">
+    <row r="14" spans="1:11" ht="37.5">
       <c r="A14" s="19" t="s">
         <v>76</v>
       </c>
@@ -39824,7 +39823,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="37.5" hidden="1">
+    <row r="15" spans="1:11" ht="37.5">
       <c r="A15" s="19" t="s">
         <v>77</v>
       </c>
@@ -39856,7 +39855,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="37.5" hidden="1">
+    <row r="16" spans="1:11" ht="37.5">
       <c r="A16" s="19" t="s">
         <v>78</v>
       </c>
@@ -39888,7 +39887,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="37.5" hidden="1">
+    <row r="17" spans="1:11" ht="37.5">
       <c r="A17" s="19" t="s">
         <v>79</v>
       </c>
@@ -39920,7 +39919,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="37.5" hidden="1">
+    <row r="18" spans="1:11" ht="37.5">
       <c r="A18" s="19" t="s">
         <v>80</v>
       </c>
@@ -39952,7 +39951,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="37.5" hidden="1">
+    <row r="19" spans="1:11" ht="37.5">
       <c r="A19" s="19" t="s">
         <v>176</v>
       </c>
@@ -39984,7 +39983,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="37.5" hidden="1">
+    <row r="20" spans="1:11" ht="37.5">
       <c r="A20" s="19" t="s">
         <v>177</v>
       </c>
@@ -40051,7 +40050,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="37.5" hidden="1">
+    <row r="22" spans="1:11" ht="37.5">
       <c r="A22" s="19" t="s">
         <v>179</v>
       </c>
@@ -40083,7 +40082,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="37.5" hidden="1">
+    <row r="23" spans="1:11" ht="37.5">
       <c r="A23" s="19" t="s">
         <v>180</v>
       </c>
@@ -40115,7 +40114,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="37.5" hidden="1">
+    <row r="24" spans="1:11" ht="37.5">
       <c r="A24" s="19" t="s">
         <v>541</v>
       </c>
@@ -40147,7 +40146,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="37.5" hidden="1">
+    <row r="25" spans="1:11" ht="37.5">
       <c r="A25" s="19" t="s">
         <v>542</v>
       </c>
@@ -40179,7 +40178,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="37.5" hidden="1">
+    <row r="26" spans="1:11" ht="37.5">
       <c r="A26" s="19" t="s">
         <v>543</v>
       </c>
@@ -40211,7 +40210,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="37.5" hidden="1">
+    <row r="27" spans="1:11" ht="37.5">
       <c r="A27" s="19" t="s">
         <v>544</v>
       </c>
@@ -40243,7 +40242,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="37.5" hidden="1">
+    <row r="28" spans="1:11" ht="37.5">
       <c r="A28" s="19" t="s">
         <v>545</v>
       </c>
@@ -40310,7 +40309,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="37.5" hidden="1">
+    <row r="30" spans="1:11" ht="37.5">
       <c r="A30" s="19" t="s">
         <v>547</v>
       </c>
@@ -40342,7 +40341,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="37.5" hidden="1">
+    <row r="31" spans="1:11" ht="37.5">
       <c r="A31" s="19" t="s">
         <v>548</v>
       </c>
@@ -40374,7 +40373,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="37" customFormat="1" ht="37.5" hidden="1">
+    <row r="32" spans="1:11" s="37" customFormat="1" ht="37.5">
       <c r="A32" s="34" t="s">
         <v>549</v>
       </c>
@@ -40442,7 +40441,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="56.25" hidden="1">
+    <row r="34" spans="1:11" ht="56.25">
       <c r="A34" s="19" t="s">
         <v>551</v>
       </c>
@@ -40490,14 +40489,7 @@
       <c r="C39" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K34" xr:uid="{70830121-0F86-4ED5-84E5-C695C0022A94}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="要確認"/>
-        <filter val="要修正"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K34" xr:uid="{70830121-0F86-4ED5-84E5-C695C0022A94}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40508,7 +40500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC00FF5A-A12E-44BF-A580-758A46D27A3B}">
   <dimension ref="A1:K658"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I2" sqref="F2:I2"/>
     </sheetView>
   </sheetViews>
